--- a/89_Features_Definition.xlsx
+++ b/89_Features_Definition.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikimaru\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47C881F-939C-4D8E-863C-C3B8291A96B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -581,21 +590,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -605,11 +614,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -623,38 +638,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -844,26 +863,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="62.0"/>
-    <col customWidth="1" min="4" max="4" width="35.0"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,9 +901,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -891,9 +915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -905,9 +929,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -919,9 +943,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -933,9 +957,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -947,9 +971,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -961,9 +985,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="120">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -975,9 +999,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="120">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -989,9 +1013,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1003,9 +1027,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
@@ -1017,9 +1041,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -1031,9 +1055,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
@@ -1045,9 +1069,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -1059,9 +1083,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
@@ -1073,9 +1097,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
@@ -1087,9 +1111,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
@@ -1101,9 +1125,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -1115,9 +1139,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
@@ -1129,9 +1153,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1143,9 +1167,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
@@ -1157,9 +1181,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -1171,9 +1195,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
@@ -1185,9 +1209,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
@@ -1199,9 +1223,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
@@ -1213,9 +1237,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
@@ -1227,9 +1251,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
@@ -1241,9 +1265,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
@@ -1255,9 +1279,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1269,9 +1293,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1283,9 +1307,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -1297,9 +1321,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
@@ -1311,9 +1335,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
@@ -1325,9 +1349,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
@@ -1339,9 +1363,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
@@ -1353,9 +1377,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
@@ -1367,9 +1391,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
@@ -1381,9 +1405,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
@@ -1395,9 +1419,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
@@ -1409,9 +1433,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
@@ -1423,9 +1447,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="45">
       <c r="A41" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -1437,9 +1461,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="30">
       <c r="A42" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
@@ -1451,9 +1475,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
@@ -1465,9 +1489,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
@@ -1479,9 +1503,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
@@ -1493,9 +1517,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="30">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>95</v>
@@ -1507,9 +1531,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
@@ -1521,9 +1545,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -1535,9 +1559,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>101</v>
@@ -1549,9 +1573,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>103</v>
@@ -1563,9 +1587,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>105</v>
@@ -1577,9 +1601,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>107</v>
@@ -1591,9 +1615,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="30">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>109</v>
@@ -1605,9 +1629,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="30">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>111</v>
@@ -1619,9 +1643,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="30">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>113</v>
@@ -1633,9 +1657,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="30">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>115</v>
@@ -1647,9 +1671,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>117</v>
@@ -1661,9 +1685,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>119</v>
@@ -1675,9 +1699,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>121</v>
@@ -1689,9 +1713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>123</v>
@@ -1703,9 +1727,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>125</v>
@@ -1717,9 +1741,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>127</v>
@@ -1731,9 +1755,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>129</v>
@@ -1745,9 +1769,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>131</v>
@@ -1759,9 +1783,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>133</v>
@@ -1773,9 +1797,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>135</v>
@@ -1787,9 +1811,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="30">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>137</v>
@@ -1801,9 +1825,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="30">
       <c r="A68" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>139</v>
@@ -1815,9 +1839,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="30">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>141</v>
@@ -1829,9 +1853,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="30">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>143</v>
@@ -1843,9 +1867,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="30">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>145</v>
@@ -1857,9 +1881,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>147</v>
@@ -1871,9 +1895,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>149</v>
@@ -1885,9 +1909,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>151</v>
@@ -1899,9 +1923,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>153</v>
@@ -1913,9 +1937,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
       <c r="A76" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>155</v>
@@ -1927,9 +1951,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
       <c r="A77" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>157</v>
@@ -1941,9 +1965,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
       <c r="A78" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>159</v>
@@ -1955,9 +1979,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
       <c r="A79" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>161</v>
@@ -1969,9 +1993,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>163</v>
@@ -1983,9 +2007,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
       <c r="A81" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>165</v>
@@ -1997,9 +2021,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
       <c r="A82" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>167</v>
@@ -2011,9 +2035,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
       <c r="A83" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>169</v>
@@ -2025,9 +2049,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
       <c r="A84" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>171</v>
@@ -2039,9 +2063,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>173</v>
@@ -2053,9 +2077,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1">
       <c r="A86" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>175</v>
@@ -2067,9 +2091,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="A87" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>177</v>
@@ -2081,9 +2105,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
       <c r="A88" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>179</v>
@@ -2095,9 +2119,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="A89" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>181</v>
@@ -2109,9 +2133,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" ht="15.75" customHeight="1">
       <c r="A90" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>183</v>
@@ -2123,9 +2147,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="15.75" customHeight="1">
       <c r="A91" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>185</v>
@@ -2138,9 +2162,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>